--- a/page/eb11/r01/eb11-r01.xlsx
+++ b/page/eb11/r01/eb11-r01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\eb-corpus\production\eb11\r01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp2\page\eb11\r01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>encyclopaediabri22chisrich_0790</t>
-  </si>
-  <si>
     <t>eb11-r01-0001</t>
   </si>
   <si>
@@ -1620,12 +1617,15 @@
   </si>
   <si>
     <t>end of volume 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
@@ -2007,7 +2007,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="C2" s="8">
         <v>22</v>
@@ -2079,22 +2079,22 @@
         <v>765</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="10">
         <v>43250</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="13">
         <v>43250</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8">
         <v>22</v>
@@ -2111,17 +2111,17 @@
         <v>766</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="J3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8">
         <v>22</v>
@@ -2130,17 +2130,17 @@
         <v>767</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="J4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8">
         <v>22</v>
@@ -2149,17 +2149,17 @@
         <v>768</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5"/>
       <c r="H5" s="7"/>
       <c r="J5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8">
         <v>22</v>
@@ -2168,17 +2168,17 @@
         <v>769</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="J6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8">
         <v>22</v>
@@ -2187,17 +2187,17 @@
         <v>770</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="J7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8">
         <v>22</v>
@@ -2206,17 +2206,17 @@
         <v>771</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="J8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8">
         <v>22</v>
@@ -2225,17 +2225,17 @@
         <v>772</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="J9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8">
         <v>22</v>
@@ -2244,17 +2244,17 @@
         <v>773</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8">
         <v>22</v>
@@ -2263,17 +2263,17 @@
         <v>774</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="J11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8">
         <v>22</v>
@@ -2282,17 +2282,17 @@
         <v>775</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="J12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8">
         <v>22</v>
@@ -2301,17 +2301,17 @@
         <v>776</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="J13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="8">
         <v>22</v>
@@ -2320,17 +2320,17 @@
         <v>777</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="J14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8">
         <v>22</v>
@@ -2339,17 +2339,17 @@
         <v>778</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="J15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8">
         <v>22</v>
@@ -2358,17 +2358,17 @@
         <v>779</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
       <c r="J16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8">
         <v>22</v>
@@ -2377,17 +2377,17 @@
         <v>780</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="J17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8">
         <v>22</v>
@@ -2396,17 +2396,17 @@
         <v>781</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="J18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8">
         <v>22</v>
@@ -2415,19 +2415,19 @@
         <v>782</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="J19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8">
         <v>22</v>
@@ -2436,17 +2436,17 @@
         <v>783</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="J20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="8">
         <v>22</v>
@@ -2455,19 +2455,19 @@
         <v>784</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="J21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8">
         <v>22</v>
@@ -2476,17 +2476,17 @@
         <v>785</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="J22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="8">
         <v>22</v>
@@ -2495,21 +2495,21 @@
         <v>786</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="J23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="8">
         <v>22</v>
@@ -2518,20 +2518,20 @@
         <v>787</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="J24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="8">
         <v>22</v>
@@ -2540,20 +2540,20 @@
         <v>788</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
       <c r="J25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="8">
         <v>22</v>
@@ -2562,17 +2562,17 @@
         <v>789</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
       <c r="J26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="8">
         <v>22</v>
@@ -2581,20 +2581,20 @@
         <v>790</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
       <c r="J27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="8">
         <v>22</v>
@@ -2603,17 +2603,17 @@
         <v>791</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
       <c r="J28" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="8">
         <v>22</v>
@@ -2622,19 +2622,19 @@
         <v>792</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
       <c r="J29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="8">
         <v>22</v>
@@ -2643,20 +2643,20 @@
         <v>793</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
       <c r="J30" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="8">
         <v>22</v>
@@ -2665,20 +2665,20 @@
         <v>794</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="J31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="8">
         <v>22</v>
@@ -2687,17 +2687,17 @@
         <v>795</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
       <c r="J32" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="8">
         <v>22</v>
@@ -2706,17 +2706,17 @@
         <v>796</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
       <c r="J33" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="8">
         <v>22</v>
@@ -2725,20 +2725,20 @@
         <v>797</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
       <c r="J34" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="8">
         <v>22</v>
@@ -2747,17 +2747,17 @@
         <v>798</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
       <c r="J35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="8">
         <v>22</v>
@@ -2766,17 +2766,17 @@
         <v>799</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
       <c r="J36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="8">
         <v>22</v>
@@ -2785,17 +2785,17 @@
         <v>800</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
       <c r="J37" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="8">
         <v>22</v>
@@ -2804,17 +2804,17 @@
         <v>801</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
       <c r="J38" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="8">
         <v>22</v>
@@ -2823,17 +2823,17 @@
         <v>802</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
       <c r="J39" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="8">
         <v>22</v>
@@ -2842,17 +2842,17 @@
         <v>803</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
       <c r="J40" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="8">
         <v>22</v>
@@ -2861,17 +2861,17 @@
         <v>804</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
       <c r="J41" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="8">
         <v>22</v>
@@ -2880,20 +2880,20 @@
         <v>805</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
       <c r="J42" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="8">
         <v>22</v>
@@ -2902,17 +2902,17 @@
         <v>806</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
       <c r="J43" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="8">
         <v>22</v>
@@ -2921,17 +2921,17 @@
         <v>807</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="J44" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="8">
         <v>22</v>
@@ -2940,17 +2940,17 @@
         <v>808</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="J45" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="8">
         <v>22</v>
@@ -2959,17 +2959,17 @@
         <v>809</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
       <c r="J46" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="8">
         <v>22</v>
@@ -2978,17 +2978,17 @@
         <v>810</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
       <c r="J47" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="8">
         <v>22</v>
@@ -2997,17 +2997,17 @@
         <v>811</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
       <c r="J48" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="8">
         <v>22</v>
@@ -3016,17 +3016,17 @@
         <v>812</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
       <c r="J49" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="8">
         <v>22</v>
@@ -3035,17 +3035,17 @@
         <v>813</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
       <c r="J50" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="8">
         <v>22</v>
@@ -3054,17 +3054,17 @@
         <v>814</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
       <c r="J51" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="8">
         <v>22</v>
@@ -3073,17 +3073,17 @@
         <v>815</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
       <c r="J52" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="8">
         <v>22</v>
@@ -3092,17 +3092,17 @@
         <v>816</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
       <c r="J53" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="8">
         <v>22</v>
@@ -3111,17 +3111,17 @@
         <v>817</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
       <c r="J54" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="8">
         <v>22</v>
@@ -3130,17 +3130,17 @@
         <v>818</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
       <c r="J55" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="8">
         <v>22</v>
@@ -3149,17 +3149,17 @@
         <v>819</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
       <c r="J56" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="8">
         <v>22</v>
@@ -3168,17 +3168,17 @@
         <v>820</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
       <c r="J57" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="8">
         <v>22</v>
@@ -3187,17 +3187,17 @@
         <v>821</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
       <c r="J58" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="8">
         <v>22</v>
@@ -3206,17 +3206,17 @@
         <v>822</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
       <c r="J59" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="8">
         <v>22</v>
@@ -3225,17 +3225,17 @@
         <v>823</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
       <c r="J60" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" s="8">
         <v>22</v>
@@ -3244,20 +3244,20 @@
         <v>824</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
       <c r="J61" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="8">
         <v>22</v>
@@ -3266,17 +3266,17 @@
         <v>825</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
       <c r="J62" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="8">
         <v>22</v>
@@ -3285,17 +3285,17 @@
         <v>826</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
       <c r="J63" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="8">
         <v>22</v>
@@ -3304,17 +3304,17 @@
         <v>827</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F64"/>
       <c r="G64"/>
       <c r="J64" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="8">
         <v>22</v>
@@ -3323,17 +3323,17 @@
         <v>828</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
       <c r="J65" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="8">
         <v>22</v>
@@ -3342,17 +3342,17 @@
         <v>829</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
       <c r="J66" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="8">
         <v>22</v>
@@ -3361,17 +3361,17 @@
         <v>830</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67"/>
       <c r="G67"/>
       <c r="J67" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="8">
         <v>22</v>
@@ -3380,17 +3380,17 @@
         <v>831</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
       <c r="J68" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" s="8">
         <v>22</v>
@@ -3399,15 +3399,15 @@
         <v>832</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="8">
         <v>22</v>
@@ -3416,15 +3416,15 @@
         <v>833</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="8">
         <v>22</v>
@@ -3433,15 +3433,15 @@
         <v>834</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" s="8">
         <v>22</v>
@@ -3450,15 +3450,15 @@
         <v>835</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="8">
         <v>22</v>
@@ -3467,15 +3467,15 @@
         <v>836</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C74" s="8">
         <v>22</v>
@@ -3484,15 +3484,15 @@
         <v>837</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="8">
         <v>22</v>
@@ -3501,15 +3501,15 @@
         <v>838</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" s="8">
         <v>22</v>
@@ -3518,15 +3518,15 @@
         <v>839</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="8">
         <v>22</v>
@@ -3535,15 +3535,15 @@
         <v>840</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="8">
         <v>22</v>
@@ -3552,15 +3552,15 @@
         <v>841</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="8">
         <v>22</v>
@@ -3569,15 +3569,15 @@
         <v>842</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="8">
         <v>22</v>
@@ -3586,18 +3586,18 @@
         <v>843</v>
       </c>
       <c r="E80" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" s="8">
         <v>22</v>
@@ -3606,18 +3606,18 @@
         <v>844</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C82" s="8">
         <v>22</v>
@@ -3626,18 +3626,18 @@
         <v>845</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C83" s="8">
         <v>22</v>
@@ -3646,15 +3646,15 @@
         <v>846</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C84" s="8">
         <v>22</v>
@@ -3663,18 +3663,18 @@
         <v>847</v>
       </c>
       <c r="E84" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L84" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L84" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C85" s="8">
         <v>22</v>
@@ -3683,18 +3683,18 @@
         <v>848</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C86" s="8">
         <v>22</v>
@@ -3703,15 +3703,15 @@
         <v>849</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C87" s="8">
         <v>22</v>
@@ -3720,18 +3720,18 @@
         <v>850</v>
       </c>
       <c r="E87" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L87" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C88" s="8">
         <v>22</v>
@@ -3740,15 +3740,15 @@
         <v>851</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C89" s="8">
         <v>22</v>
@@ -3757,15 +3757,15 @@
         <v>852</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C90" s="8">
         <v>22</v>
@@ -3774,15 +3774,15 @@
         <v>853</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" s="8">
         <v>22</v>
@@ -3791,17 +3791,17 @@
         <v>854</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="J91" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" s="8">
         <v>22</v>
@@ -3810,17 +3810,17 @@
         <v>855</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="J92" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C93" s="8">
         <v>22</v>
@@ -3829,15 +3829,15 @@
         <v>856</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C94" s="8">
         <v>22</v>
@@ -3846,18 +3846,18 @@
         <v>857</v>
       </c>
       <c r="E94" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L94" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C95" s="8">
         <v>22</v>
@@ -3866,15 +3866,15 @@
         <v>858</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C96" s="8">
         <v>22</v>
@@ -3883,15 +3883,15 @@
         <v>859</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C97" s="8">
         <v>22</v>
@@ -3900,15 +3900,15 @@
         <v>860</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="8">
         <v>22</v>
@@ -3917,15 +3917,15 @@
         <v>861</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" s="8">
         <v>22</v>
@@ -3934,15 +3934,15 @@
         <v>862</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C100" s="8">
         <v>22</v>
@@ -3951,15 +3951,15 @@
         <v>863</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" s="8">
         <v>22</v>
@@ -3968,15 +3968,15 @@
         <v>864</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C102" s="8">
         <v>22</v>
@@ -3985,15 +3985,15 @@
         <v>865</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C103" s="8">
         <v>22</v>
@@ -4002,15 +4002,15 @@
         <v>866</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C104" s="8">
         <v>22</v>
@@ -4019,15 +4019,15 @@
         <v>867</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C105" s="8">
         <v>22</v>
@@ -4036,15 +4036,15 @@
         <v>868</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="8">
         <v>22</v>
@@ -4053,15 +4053,15 @@
         <v>869</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C107" s="8">
         <v>22</v>
@@ -4070,15 +4070,15 @@
         <v>870</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C108" s="8">
         <v>22</v>
@@ -4087,15 +4087,15 @@
         <v>871</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C109" s="8">
         <v>22</v>
@@ -4104,15 +4104,15 @@
         <v>872</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C110" s="8">
         <v>22</v>
@@ -4121,15 +4121,15 @@
         <v>873</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C111" s="8">
         <v>22</v>
@@ -4138,15 +4138,15 @@
         <v>874</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C112" s="8">
         <v>22</v>
@@ -4155,15 +4155,15 @@
         <v>875</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C113" s="8">
         <v>22</v>
@@ -4172,15 +4172,15 @@
         <v>876</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C114" s="8">
         <v>22</v>
@@ -4189,15 +4189,15 @@
         <v>877</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C115" s="8">
         <v>22</v>
@@ -4206,15 +4206,15 @@
         <v>878</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C116" s="8">
         <v>22</v>
@@ -4223,15 +4223,15 @@
         <v>879</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C117" s="8">
         <v>22</v>
@@ -4240,15 +4240,15 @@
         <v>880</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C118" s="8">
         <v>22</v>
@@ -4257,15 +4257,15 @@
         <v>881</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C119" s="8">
         <v>22</v>
@@ -4274,15 +4274,15 @@
         <v>882</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C120" s="8">
         <v>22</v>
@@ -4291,15 +4291,15 @@
         <v>883</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C121" s="8">
         <v>22</v>
@@ -4308,15 +4308,15 @@
         <v>884</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C122" s="8">
         <v>22</v>
@@ -4325,15 +4325,15 @@
         <v>885</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C123" s="8">
         <v>22</v>
@@ -4342,15 +4342,15 @@
         <v>886</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C124" s="8">
         <v>22</v>
@@ -4359,15 +4359,15 @@
         <v>887</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C125" s="8">
         <v>22</v>
@@ -4376,15 +4376,15 @@
         <v>888</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" s="8">
         <v>22</v>
@@ -4393,15 +4393,15 @@
         <v>889</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C127" s="8">
         <v>22</v>
@@ -4410,15 +4410,15 @@
         <v>890</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C128" s="8">
         <v>22</v>
@@ -4427,15 +4427,15 @@
         <v>891</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C129" s="8">
         <v>22</v>
@@ -4444,15 +4444,15 @@
         <v>892</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C130" s="8">
         <v>22</v>
@@ -4461,15 +4461,15 @@
         <v>893</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C131" s="8">
         <v>22</v>
@@ -4478,15 +4478,15 @@
         <v>894</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C132" s="8">
         <v>22</v>
@@ -4495,15 +4495,15 @@
         <v>895</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C133" s="8">
         <v>22</v>
@@ -4512,15 +4512,15 @@
         <v>896</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C134" s="8">
         <v>22</v>
@@ -4529,15 +4529,15 @@
         <v>897</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C135" s="8">
         <v>22</v>
@@ -4546,15 +4546,15 @@
         <v>898</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C136" s="8">
         <v>22</v>
@@ -4563,15 +4563,15 @@
         <v>899</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C137" s="8">
         <v>22</v>
@@ -4580,18 +4580,18 @@
         <v>900</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C138" s="8">
         <v>22</v>
@@ -4600,15 +4600,15 @@
         <v>901</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C139" s="8">
         <v>22</v>
@@ -4617,15 +4617,15 @@
         <v>902</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C140" s="8">
         <v>22</v>
@@ -4634,15 +4634,15 @@
         <v>903</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C141" s="8">
         <v>22</v>
@@ -4651,17 +4651,17 @@
         <v>904</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="J141" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C142" s="8">
         <v>22</v>
@@ -4670,17 +4670,17 @@
         <v>905</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="J142" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C143" s="8">
         <v>22</v>
@@ -4689,17 +4689,17 @@
         <v>906</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="J143" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C144" s="8">
         <v>22</v>
@@ -4708,17 +4708,17 @@
         <v>907</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
       <c r="J144" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C145" s="8">
         <v>22</v>
@@ -4727,15 +4727,15 @@
         <v>908</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C146" s="8">
         <v>22</v>
@@ -4744,15 +4744,15 @@
         <v>909</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C147" s="8">
         <v>22</v>
@@ -4761,15 +4761,15 @@
         <v>910</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C148" s="8">
         <v>22</v>
@@ -4778,15 +4778,15 @@
         <v>911</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C149" s="8">
         <v>22</v>
@@ -4795,15 +4795,15 @@
         <v>912</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C150" s="8">
         <v>22</v>
@@ -4812,15 +4812,15 @@
         <v>913</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C151" s="8">
         <v>22</v>
@@ -4829,15 +4829,15 @@
         <v>914</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C152" s="8">
         <v>22</v>
@@ -4846,15 +4846,15 @@
         <v>915</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C153" s="8">
         <v>22</v>
@@ -4863,15 +4863,15 @@
         <v>916</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B154" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C154" s="8">
         <v>22</v>
@@ -4880,15 +4880,15 @@
         <v>917</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C155" s="8">
         <v>22</v>
@@ -4897,15 +4897,15 @@
         <v>918</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C156" s="8">
         <v>22</v>
@@ -4914,15 +4914,15 @@
         <v>919</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B157" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C157" s="8">
         <v>22</v>
@@ -4931,15 +4931,15 @@
         <v>920</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B158" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C158" s="8">
         <v>22</v>
@@ -4948,15 +4948,15 @@
         <v>921</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C159" s="8">
         <v>22</v>
@@ -4965,15 +4965,15 @@
         <v>922</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C160" s="8">
         <v>22</v>
@@ -4982,18 +4982,18 @@
         <v>923</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C161" s="8">
         <v>22</v>
@@ -5002,15 +5002,15 @@
         <v>924</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C162" s="8">
         <v>22</v>
@@ -5019,15 +5019,15 @@
         <v>925</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C163" s="8">
         <v>22</v>
@@ -5036,15 +5036,15 @@
         <v>926</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C164" s="8">
         <v>22</v>
@@ -5053,15 +5053,15 @@
         <v>927</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C165" s="8">
         <v>22</v>
@@ -5070,15 +5070,15 @@
         <v>928</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C166" s="8">
         <v>22</v>
@@ -5087,15 +5087,15 @@
         <v>929</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C167" s="8">
         <v>22</v>
@@ -5104,15 +5104,15 @@
         <v>930</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C168" s="8">
         <v>22</v>
@@ -5121,15 +5121,15 @@
         <v>931</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C169" s="8">
         <v>22</v>
@@ -5138,15 +5138,15 @@
         <v>932</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C170" s="8">
         <v>22</v>
@@ -5155,15 +5155,15 @@
         <v>933</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C171" s="8">
         <v>22</v>
@@ -5172,15 +5172,15 @@
         <v>934</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C172" s="8">
         <v>22</v>
@@ -5189,15 +5189,15 @@
         <v>935</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C173" s="8">
         <v>22</v>
@@ -5206,15 +5206,15 @@
         <v>936</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C174" s="8">
         <v>22</v>
@@ -5223,15 +5223,15 @@
         <v>937</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C175" s="8">
         <v>22</v>
@@ -5240,15 +5240,15 @@
         <v>938</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C176" s="8">
         <v>22</v>
@@ -5257,15 +5257,15 @@
         <v>939</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B177" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C177" s="8">
         <v>22</v>
@@ -5274,15 +5274,15 @@
         <v>940</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C178" s="8">
         <v>22</v>
@@ -5291,15 +5291,15 @@
         <v>941</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="179" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C179" s="8">
         <v>22</v>
@@ -5308,15 +5308,15 @@
         <v>942</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C180" s="8">
         <v>22</v>
@@ -5325,15 +5325,15 @@
         <v>943</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C181" s="8">
         <v>22</v>
@@ -5342,15 +5342,15 @@
         <v>944</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="182" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B182" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C182" s="8">
         <v>22</v>
@@ -5359,15 +5359,15 @@
         <v>945</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="183" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C183" s="8">
         <v>22</v>
@@ -5376,18 +5376,18 @@
         <v>946</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B184" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C184" s="8">
         <v>22</v>
@@ -5396,18 +5396,18 @@
         <v>947</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B185" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C185" s="8">
         <v>22</v>
@@ -5416,18 +5416,18 @@
         <v>948</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="186" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C186" s="8">
         <v>22</v>
@@ -5436,15 +5436,15 @@
         <v>949</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C187" s="8">
         <v>22</v>
@@ -5453,15 +5453,15 @@
         <v>950</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B188" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C188" s="8">
         <v>22</v>
@@ -5470,15 +5470,15 @@
         <v>951</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B189" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C189" s="8">
         <v>22</v>
@@ -5487,15 +5487,15 @@
         <v>952</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B190" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C190" s="8">
         <v>22</v>
@@ -5504,15 +5504,15 @@
         <v>953</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C191" s="8">
         <v>22</v>
@@ -5521,15 +5521,15 @@
         <v>954</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B192" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C192" s="8">
         <v>22</v>
@@ -5538,15 +5538,15 @@
         <v>955</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C193" s="8">
         <v>22</v>
@@ -5555,15 +5555,15 @@
         <v>956</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J193" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C194" s="8">
         <v>22</v>
@@ -5572,15 +5572,15 @@
         <v>957</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J194" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C195" s="8">
         <v>22</v>
@@ -5589,15 +5589,15 @@
         <v>958</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C196" s="8">
         <v>22</v>
@@ -5606,15 +5606,15 @@
         <v>959</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J196" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C197" s="8">
         <v>22</v>
@@ -5623,15 +5623,15 @@
         <v>960</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J197" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C198" s="8">
         <v>22</v>
@@ -5640,15 +5640,15 @@
         <v>961</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J198" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C199" s="8">
         <v>22</v>
@@ -5657,15 +5657,15 @@
         <v>962</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J199" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C200" s="8">
         <v>22</v>
@@ -5674,15 +5674,15 @@
         <v>963</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J200" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C201" s="8">
         <v>22</v>
@@ -5691,15 +5691,15 @@
         <v>964</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J201" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C202" s="8">
         <v>22</v>
@@ -5708,15 +5708,15 @@
         <v>965</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J202" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C203" s="8">
         <v>22</v>
@@ -5725,15 +5725,15 @@
         <v>966</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J203" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C204" s="8">
         <v>22</v>
@@ -5742,15 +5742,15 @@
         <v>967</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J204" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C205" s="8">
         <v>22</v>
@@ -5759,15 +5759,15 @@
         <v>968</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J205" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C206" s="8">
         <v>22</v>
@@ -5776,15 +5776,15 @@
         <v>969</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J206" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C207" s="8">
         <v>22</v>
@@ -5793,15 +5793,15 @@
         <v>970</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J207" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C208" s="8">
         <v>22</v>
@@ -5810,15 +5810,15 @@
         <v>971</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J208" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C209" s="8">
         <v>22</v>
@@ -5827,15 +5827,15 @@
         <v>972</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J209" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C210" s="8">
         <v>22</v>
@@ -5844,15 +5844,15 @@
         <v>973</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J210" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C211" s="8">
         <v>22</v>
@@ -5861,15 +5861,15 @@
         <v>974</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J211" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C212" s="8">
         <v>22</v>
@@ -5878,15 +5878,15 @@
         <v>975</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J212" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C213" s="8">
         <v>22</v>
@@ -5895,18 +5895,18 @@
         <v>976</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J213" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C214" s="8">
         <v>23</v>
@@ -5915,18 +5915,18 @@
         <v>1</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J214" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C215" s="8">
         <v>23</v>
@@ -5935,15 +5935,15 @@
         <v>2</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J215" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C216" s="8">
         <v>23</v>
@@ -5952,15 +5952,15 @@
         <v>3</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J216" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C217" s="8">
         <v>23</v>
@@ -5969,15 +5969,15 @@
         <v>4</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J217" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C218" s="8">
         <v>23</v>
@@ -5986,15 +5986,15 @@
         <v>5</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C219" s="8">
         <v>23</v>
@@ -6003,15 +6003,15 @@
         <v>6</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C220" s="8">
         <v>23</v>
@@ -6020,15 +6020,15 @@
         <v>7</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B221" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C221" s="8">
         <v>23</v>
@@ -6037,15 +6037,15 @@
         <v>8</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="222" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B222" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C222" s="8">
         <v>23</v>
@@ -6054,15 +6054,15 @@
         <v>9</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J222" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="223" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B223" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C223" s="8">
         <v>23</v>
@@ -6071,15 +6071,15 @@
         <v>10</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B224" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C224" s="8">
         <v>23</v>
@@ -6088,15 +6088,15 @@
         <v>11</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B225" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C225" s="8">
         <v>23</v>
@@ -6105,15 +6105,15 @@
         <v>12</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J225" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B226" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C226" s="8">
         <v>23</v>
@@ -6122,15 +6122,15 @@
         <v>13</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B227" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C227" s="8">
         <v>23</v>
@@ -6139,15 +6139,15 @@
         <v>14</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J227" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B228" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C228" s="8">
         <v>23</v>
@@ -6156,15 +6156,15 @@
         <v>15</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B229" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C229" s="8">
         <v>23</v>
@@ -6173,15 +6173,15 @@
         <v>16</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J229" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C230" s="8">
         <v>23</v>
@@ -6190,15 +6190,15 @@
         <v>17</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B231" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C231" s="8">
         <v>23</v>
@@ -6207,15 +6207,15 @@
         <v>18</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J231" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B232" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C232" s="8">
         <v>23</v>
@@ -6224,15 +6224,15 @@
         <v>19</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J232" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B233" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C233" s="8">
         <v>23</v>
@@ -6241,15 +6241,15 @@
         <v>20</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J233" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B234" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C234" s="8">
         <v>23</v>
@@ -6258,15 +6258,15 @@
         <v>21</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J234" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B235" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C235" s="8">
         <v>23</v>
@@ -6275,15 +6275,15 @@
         <v>22</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J235" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B236" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C236" s="8">
         <v>23</v>
@@ -6292,15 +6292,15 @@
         <v>23</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J236" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B237" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C237" s="8">
         <v>23</v>
@@ -6309,15 +6309,15 @@
         <v>24</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J237" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B238" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C238" s="8">
         <v>23</v>
@@ -6326,15 +6326,15 @@
         <v>25</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B239" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C239" s="8">
         <v>23</v>
@@ -6343,15 +6343,15 @@
         <v>26</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J239" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B240" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C240" s="8">
         <v>23</v>
@@ -6360,15 +6360,15 @@
         <v>27</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B241" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C241" s="8">
         <v>23</v>
@@ -6377,15 +6377,15 @@
         <v>28</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B242" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C242" s="8">
         <v>23</v>
@@ -6394,15 +6394,15 @@
         <v>29</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B243" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C243" s="8">
         <v>23</v>
@@ -6411,15 +6411,15 @@
         <v>30</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B244" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C244" s="8">
         <v>23</v>
@@ -6428,15 +6428,15 @@
         <v>31</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B245" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C245" s="8">
         <v>23</v>
@@ -6445,15 +6445,15 @@
         <v>32</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B246" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C246" s="8">
         <v>23</v>
@@ -6462,15 +6462,15 @@
         <v>33</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B247" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C247" s="8">
         <v>23</v>
@@ -6479,15 +6479,15 @@
         <v>34</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B248" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C248" s="8">
         <v>23</v>
@@ -6496,15 +6496,15 @@
         <v>35</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B249" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C249" s="8">
         <v>23</v>
@@ -6513,59 +6513,59 @@
         <v>36</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B250" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C250" s="8">
         <v>23</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B251" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C251" s="8">
         <v>23</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B252" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C252" s="8">
         <v>23</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B253" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C253" s="8">
         <v>23</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B254" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C254" s="8">
         <v>23</v>
@@ -6574,15 +6574,15 @@
         <v>37</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B255" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C255" s="8">
         <v>23</v>
@@ -6591,10 +6591,10 @@
         <v>38</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J255" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
